--- a/StructureDefinition-datos-sigges-formularios.xlsx
+++ b/StructureDefinition-datos-sigges-formularios.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T09:34:47-03:00</t>
+    <t>2025-01-31T15:38:22-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-datos-sigges-formularios.xlsx
+++ b/StructureDefinition-datos-sigges-formularios.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:38:22-03:00</t>
+    <t>2025-03-06T08:20:26-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -619,7 +619,7 @@
     <t>QuestionnaireResponse.identifier.system</t>
   </si>
   <si>
-    <t xml:space="preserve">Namespace del valor de identificación. </t>
+    <t>Namespace del valor de identificación.</t>
   </si>
   <si>
     <t>Identifica la URL sobre la cual se describe el set de valores que es único.</t>

--- a/StructureDefinition-datos-sigges-formularios.xlsx
+++ b/StructureDefinition-datos-sigges-formularios.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T08:20:26-03:00</t>
+    <t>2025-03-06T09:05:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
